--- a/output/1Y_P30_1VAL-D.xlsx
+++ b/output/1Y_P30_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>711.5513</v>
       </c>
-      <c r="G2" s="1">
-        <v>711.5513</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.127899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E3" s="1">
+        <v>711.5513</v>
+      </c>
       <c r="F3" s="1">
         <v>758.3053</v>
       </c>
-      <c r="G3" s="1">
-        <v>1469.8567</v>
-      </c>
       <c r="H3" s="1">
-        <v>19282.9026</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.6068</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0538</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19282.9026</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0333</v>
+        <v>-0.0665</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E4" s="1">
+        <v>1469.8567</v>
+      </c>
       <c r="F4" s="1">
         <v>766.0605</v>
       </c>
-      <c r="G4" s="1">
-        <v>2235.9171</v>
-      </c>
       <c r="H4" s="1">
-        <v>29035.8433</v>
+        <v>19087.7056</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4173</v>
+        <v>19087.7056</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29035.8433</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.008399999999999999</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E5" s="1">
+        <v>2235.9171</v>
+      </c>
       <c r="F5" s="1">
         <v>722.3711</v>
       </c>
-      <c r="G5" s="1">
-        <v>2958.2882</v>
-      </c>
       <c r="H5" s="1">
-        <v>40740.0664</v>
+        <v>30791.9326</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5213</v>
+        <v>30791.9326</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.4173</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40740.0664</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0437</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E6" s="1">
+        <v>2958.2882</v>
+      </c>
       <c r="F6" s="1">
         <v>694.03</v>
       </c>
-      <c r="G6" s="1">
-        <v>3652.3182</v>
-      </c>
       <c r="H6" s="1">
-        <v>52351.9636</v>
+        <v>42403.8077</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6899</v>
+        <v>42403.8077</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.5213</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52351.9636</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0318</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E7" s="1">
+        <v>3652.3182</v>
+      </c>
       <c r="F7" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G7" s="1">
-        <v>4321.9401</v>
-      </c>
       <c r="H7" s="1">
-        <v>64208.039</v>
+        <v>54259.9347</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8827</v>
+        <v>54259.9347</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6899</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64208.039</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0298</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E8" s="1">
+        <v>4321.9401</v>
+      </c>
       <c r="F8" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G8" s="1">
-        <v>4949.6353</v>
-      </c>
       <c r="H8" s="1">
-        <v>78445.2847</v>
+        <v>68497.1323</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>14.1425</v>
+        <v>68497.1323</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.8827</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78445.2847</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0571</v>
+        <v>0.0659</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E9" s="1">
+        <v>4949.6353</v>
+      </c>
       <c r="F9" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G9" s="1">
-        <v>5537.1552</v>
-      </c>
       <c r="H9" s="1">
-        <v>93757.3265</v>
+        <v>83809.20450000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>14.4479</v>
+        <v>83809.20450000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.1425</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>93757.3265</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0601</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E10" s="1">
+        <v>5537.1552</v>
+      </c>
       <c r="F10" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G10" s="1">
-        <v>6109.8666</v>
-      </c>
       <c r="H10" s="1">
-        <v>106129.6054</v>
+        <v>96181.493</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>14.7303</v>
+        <v>96181.493</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.4479</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>106129.6054</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0229</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.886</v>
       </c>
+      <c r="E11" s="1">
+        <v>6109.8666</v>
+      </c>
       <c r="F11" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G11" s="1">
-        <v>6702.0732</v>
-      </c>
       <c r="H11" s="1">
-        <v>112584.7765</v>
+        <v>102636.5946</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>14.9208</v>
+        <v>102636.5946</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.7303</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112584.7765</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0305</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.59</v>
       </c>
+      <c r="E12" s="1">
+        <v>6702.0732</v>
+      </c>
       <c r="F12" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G12" s="1">
-        <v>7270.578</v>
-      </c>
       <c r="H12" s="1">
-        <v>127226.3907</v>
+        <v>117278.2384</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.1295</v>
+        <v>117278.2384</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.9208</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>127226.3907</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0379</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E13" s="1">
+        <v>7270.578</v>
+      </c>
       <c r="F13" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G13" s="1">
-        <v>7936.7073</v>
-      </c>
       <c r="H13" s="1">
-        <v>118528.3749</v>
+        <v>108580.2663</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.1196</v>
+        <v>108580.2663</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>15.1295</v>
+      </c>
+      <c r="M13" s="1">
         <v>3.57</v>
       </c>
-      <c r="L13" s="1">
-        <v>23360.3672</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>13360.3672</v>
+        <v>21533.7612</v>
       </c>
       <c r="O13" s="1">
-        <v>23360.3672</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>141888.7421</v>
+        <v>11533.7612</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.034</v>
+        <v>-0.1469</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E14" s="1">
+        <v>7936.7073</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7936.7073</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7270.578</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121310.9845</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>21533.7612</v>
       </c>
       <c r="J14" s="1">
-        <v>15.1196</v>
+        <v>142844.7456</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.8597</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>121310.9845</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>144671.3517</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>144671.3517</v>
+        <v>111129.331</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0475</v>
+        <v>0.2046</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>711.5513</v>
       </c>
       <c r="G2" s="1">
-        <v>711.5513</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.1873</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>711.5513</v>
       </c>
       <c r="F3" s="1">
         <v>758.3053</v>
       </c>
       <c r="G3" s="1">
-        <v>1469.8567</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19282.9026</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.6068</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0538</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19282.9026</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0333</v>
+        <v>-0.0665</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.0538</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1469.8567</v>
       </c>
       <c r="F4" s="1">
         <v>766.0605</v>
       </c>
       <c r="G4" s="1">
-        <v>2235.9171</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29035.8433</v>
+        <v>19087.7056</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4173</v>
+        <v>19087.7056</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29035.8433</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.008399999999999999</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.8433</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2235.9171</v>
       </c>
       <c r="F5" s="1">
         <v>668.6321</v>
       </c>
       <c r="G5" s="1">
-        <v>2904.5493</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30791.9326</v>
       </c>
       <c r="I5" s="1">
-        <v>39256.0752</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5154</v>
+        <v>30791.9326</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29256.0752</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.0846</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9256.075199999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>743.9248</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40743.9248</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0438</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.4086</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2904.5493</v>
       </c>
       <c r="F6" s="1">
         <v>583.6849</v>
       </c>
       <c r="G6" s="1">
-        <v>3488.2342</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41633.5185</v>
       </c>
       <c r="I6" s="1">
-        <v>47666.1579</v>
+        <v>743.9248</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6648</v>
+        <v>42377.4433</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37666.1579</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.968</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8410.0828</v>
       </c>
-      <c r="O6" s="1">
-        <v>2333.8421</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52333.8421</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0313</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.9338</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3488.2342</v>
       </c>
       <c r="F7" s="1">
         <v>550.4565</v>
       </c>
       <c r="G7" s="1">
-        <v>4038.6907</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51822.2535</v>
       </c>
       <c r="I7" s="1">
-        <v>55886.5648</v>
+        <v>2333.8421</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8378</v>
+        <v>54156.0956</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45886.5648</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.1547</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8220.406800000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>4113.4352</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64113.4352</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0285</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.9313</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4038.6907</v>
       </c>
       <c r="F8" s="1">
         <v>378.0754</v>
       </c>
       <c r="G8" s="1">
-        <v>4416.766</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>64007.9966</v>
       </c>
       <c r="I8" s="1">
-        <v>61909.7972</v>
+        <v>4113.4352</v>
       </c>
       <c r="J8" s="1">
-        <v>14.017</v>
+        <v>68121.43180000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51909.7972</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.8531</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6023.2324</v>
       </c>
-      <c r="O8" s="1">
-        <v>8090.2028</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78090.2028</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0537</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.0207</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4416.766</v>
       </c>
       <c r="F9" s="1">
         <v>307.9038</v>
       </c>
       <c r="G9" s="1">
-        <v>4724.6699</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74786.4494</v>
       </c>
       <c r="I9" s="1">
-        <v>67150.53569999999</v>
+        <v>8090.2028</v>
       </c>
       <c r="J9" s="1">
-        <v>14.2127</v>
+        <v>82876.6522</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>57150.5357</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.9395</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5240.7385</v>
       </c>
-      <c r="O9" s="1">
-        <v>12849.4643</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92849.46430000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.054</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.4608</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4724.6699</v>
       </c>
       <c r="F10" s="1">
         <v>456.6176</v>
       </c>
       <c r="G10" s="1">
-        <v>5181.2875</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82068.4605</v>
       </c>
       <c r="I10" s="1">
-        <v>75123.4448</v>
+        <v>12849.4643</v>
       </c>
       <c r="J10" s="1">
-        <v>14.499</v>
+        <v>94917.9247</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>65123.4448</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7837</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7972.9091</v>
       </c>
-      <c r="O10" s="1">
-        <v>14876.5552</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104876.5552</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0197</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.886</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5181.2875</v>
       </c>
       <c r="F11" s="1">
         <v>771.625</v>
       </c>
       <c r="G11" s="1">
-        <v>5952.9125</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87037.8579</v>
       </c>
       <c r="I11" s="1">
-        <v>88153.1041</v>
+        <v>14876.5552</v>
       </c>
       <c r="J11" s="1">
-        <v>14.8084</v>
+        <v>101914.4131</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78153.1041</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.0837</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13029.6592</v>
       </c>
-      <c r="O11" s="1">
-        <v>11846.8959</v>
-      </c>
-      <c r="P11" s="1">
-        <v>111846.8959</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0264</v>
+        <v>-0.0286</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.59</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5952.9125</v>
       </c>
       <c r="F12" s="1">
         <v>333.2329</v>
       </c>
       <c r="G12" s="1">
-        <v>6286.1453</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>104168.8246</v>
       </c>
       <c r="I12" s="1">
-        <v>94014.6703</v>
+        <v>11846.8959</v>
       </c>
       <c r="J12" s="1">
-        <v>14.9559</v>
+        <v>116015.7205</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>84014.6703</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.1132</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5861.5662</v>
       </c>
-      <c r="O12" s="1">
-        <v>15985.3297</v>
-      </c>
-      <c r="P12" s="1">
-        <v>125985.3297</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.034</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.0121</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6286.1453</v>
       </c>
       <c r="F13" s="1">
         <v>1730.959</v>
       </c>
       <c r="G13" s="1">
-        <v>8017.1043</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>119729.0397</v>
+        <v>93878.5517</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>15985.3297</v>
       </c>
       <c r="J13" s="1">
-        <v>14.968</v>
+        <v>109863.8814</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M13" s="1">
         <v>3.57</v>
       </c>
-      <c r="L13" s="1">
-        <v>20197.385</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-5787.9447</v>
+        <v>19126.7077</v>
       </c>
       <c r="O13" s="1">
-        <v>20197.385</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>139926.4246</v>
+        <v>-6858.622</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.029</v>
+        <v>-0.1282</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.3645</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8017.1043</v>
       </c>
       <c r="F14" s="1">
         <v>-8017.1043</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122539.8364</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>19126.7077</v>
       </c>
       <c r="J14" s="1">
-        <v>14.968</v>
+        <v>141666.5442</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.7207</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122539.8364</v>
       </c>
-      <c r="O14" s="1">
-        <v>142737.2214</v>
-      </c>
-      <c r="P14" s="1">
-        <v>142737.2214</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.048</v>
+        <v>0.1819</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>711.5513</v>
       </c>
       <c r="G2" s="1">
-        <v>711.5513</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.1873</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>711.5513</v>
       </c>
       <c r="F3" s="1">
         <v>758.3053</v>
       </c>
       <c r="G3" s="1">
-        <v>1469.8567</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19282.9026</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.6068</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0538</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19282.9026</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0333</v>
+        <v>-0.0665</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.0538</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1469.8567</v>
       </c>
       <c r="F4" s="1">
         <v>766.0605</v>
       </c>
       <c r="G4" s="1">
-        <v>2235.9171</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29035.8433</v>
+        <v>19087.7056</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4173</v>
+        <v>19087.7056</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29035.8433</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.008399999999999999</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.8433</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2235.9171</v>
       </c>
       <c r="F5" s="1">
         <v>690.489</v>
       </c>
       <c r="G5" s="1">
-        <v>2926.4061</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30791.9326</v>
       </c>
       <c r="I5" s="1">
-        <v>39558.6457</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5178</v>
+        <v>30791.9326</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29558.6457</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.2199</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9558.645699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>441.3543</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40742.3555</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0437</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.4086</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2926.4061</v>
       </c>
       <c r="F6" s="1">
         <v>596.8853</v>
       </c>
       <c r="G6" s="1">
-        <v>3523.2914</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41946.812</v>
       </c>
       <c r="I6" s="1">
-        <v>48158.9273</v>
+        <v>441.3543</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6687</v>
+        <v>42388.1663</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38158.9273</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.0395</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8600.2816</v>
       </c>
-      <c r="O6" s="1">
-        <v>1841.0727</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52343.579</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0316</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.9338</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3523.2914</v>
       </c>
       <c r="F7" s="1">
         <v>566.2207</v>
       </c>
       <c r="G7" s="1">
-        <v>4089.5121</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52343.0737</v>
       </c>
       <c r="I7" s="1">
-        <v>56614.7545</v>
+        <v>1841.0727</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8439</v>
+        <v>54184.1464</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46614.7545</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.2305</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8455.8272</v>
       </c>
-      <c r="O7" s="1">
-        <v>3385.2455</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64140.2643</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0288</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.9313</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4089.5121</v>
       </c>
       <c r="F8" s="1">
         <v>394.0603</v>
       </c>
       <c r="G8" s="1">
-        <v>4483.5724</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>64813.4506</v>
       </c>
       <c r="I8" s="1">
-        <v>62892.6472</v>
+        <v>3385.2455</v>
       </c>
       <c r="J8" s="1">
-        <v>14.0274</v>
+        <v>68198.6961</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52892.6472</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.9337</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6277.8927</v>
       </c>
-      <c r="O8" s="1">
-        <v>7107.3528</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78166.1467</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0543</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.0207</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4483.5724</v>
       </c>
       <c r="F9" s="1">
         <v>324.6112</v>
       </c>
       <c r="G9" s="1">
-        <v>4808.1836</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75917.6413</v>
       </c>
       <c r="I9" s="1">
-        <v>68417.75689999999</v>
+        <v>7107.3528</v>
       </c>
       <c r="J9" s="1">
-        <v>14.2294</v>
+        <v>83024.9941</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>58417.7569</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.0293</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5525.1097</v>
       </c>
-      <c r="O9" s="1">
-        <v>11582.2431</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92996.33100000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0548</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.4608</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4808.1836</v>
       </c>
       <c r="F10" s="1">
         <v>477.9477</v>
       </c>
       <c r="G10" s="1">
-        <v>5286.1313</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83519.1106</v>
       </c>
       <c r="I10" s="1">
-        <v>76763.1066</v>
+        <v>11582.2431</v>
       </c>
       <c r="J10" s="1">
-        <v>14.5216</v>
+        <v>95101.35370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>66763.1066</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8853</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8345.349700000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>13236.8934</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105058.0517</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.02</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.886</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5286.1313</v>
       </c>
       <c r="F11" s="1">
         <v>802.5232999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6088.6546</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>88799.077</v>
       </c>
       <c r="I11" s="1">
-        <v>90314.5145</v>
+        <v>13236.8934</v>
       </c>
       <c r="J11" s="1">
-        <v>14.8332</v>
+        <v>102035.9704</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80314.5145</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.1934</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13551.4079</v>
       </c>
-      <c r="O11" s="1">
-        <v>9685.485500000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>111965.7496</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0269</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.59</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6088.6546</v>
       </c>
       <c r="F12" s="1">
         <v>357.0254</v>
       </c>
       <c r="G12" s="1">
-        <v>6445.68</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106544.1489</v>
       </c>
       <c r="I12" s="1">
-        <v>96594.5917</v>
+        <v>9685.485500000001</v>
       </c>
       <c r="J12" s="1">
-        <v>14.9859</v>
+        <v>116229.6344</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>86594.5917</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.2223</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6280.0772</v>
       </c>
-      <c r="O12" s="1">
-        <v>13405.4083</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126197.0737</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0347</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.0121</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6445.68</v>
       </c>
       <c r="F13" s="1">
         <v>1559.1029</v>
       </c>
       <c r="G13" s="1">
-        <v>8004.7829</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119545.0286</v>
+        <v>96261.0744</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>13405.4083</v>
       </c>
       <c r="J13" s="1">
-        <v>14.991</v>
+        <v>109666.4827</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.0657</v>
+      </c>
+      <c r="M13" s="1">
         <v>3.57</v>
       </c>
-      <c r="L13" s="1">
-        <v>20709.9699</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-2695.4384</v>
+        <v>19562.8472</v>
       </c>
       <c r="O13" s="1">
-        <v>20709.9699</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>140254.9985</v>
+        <v>-3842.5611</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0298</v>
+        <v>-0.1312</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>15.3645</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8004.7829</v>
       </c>
       <c r="F14" s="1">
         <v>-8004.7829</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122351.5055</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>19562.8472</v>
       </c>
       <c r="J14" s="1">
-        <v>14.991</v>
+        <v>141914.3527</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.7418</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122351.5055</v>
       </c>
-      <c r="O14" s="1">
-        <v>143061.4754</v>
-      </c>
-      <c r="P14" s="1">
-        <v>143061.4754</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0479</v>
+        <v>0.1859</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>711.5513</v>
       </c>
       <c r="G2" s="1">
-        <v>711.5513</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.1873</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>711.5513</v>
       </c>
       <c r="F3" s="1">
         <v>758.3053</v>
       </c>
       <c r="G3" s="1">
-        <v>1469.8567</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19282.9026</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.6068</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0538</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19282.9026</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0333</v>
+        <v>-0.0665</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.0538</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1469.8567</v>
       </c>
       <c r="F4" s="1">
         <v>766.0605</v>
       </c>
       <c r="G4" s="1">
-        <v>2235.9171</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29035.8433</v>
+        <v>19087.7056</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4173</v>
+        <v>19087.7056</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29035.8433</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.008399999999999999</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.8433</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2235.9171</v>
       </c>
       <c r="F5" s="1">
         <v>712.4915</v>
       </c>
       <c r="G5" s="1">
-        <v>2948.4087</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30791.9326</v>
       </c>
       <c r="I5" s="1">
-        <v>39863.2343</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5203</v>
+        <v>30791.9326</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29863.2343</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.3561</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9863.2343</v>
       </c>
-      <c r="O5" s="1">
-        <v>136.7657</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40740.7757</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0437</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.4086</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2948.4087</v>
       </c>
       <c r="F6" s="1">
         <v>610.2913</v>
       </c>
       <c r="G6" s="1">
-        <v>3558.7</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42262.195</v>
       </c>
       <c r="I6" s="1">
-        <v>48656.6781</v>
+        <v>136.7657</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6726</v>
+        <v>42398.9608</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38656.6781</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.111</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8793.443799999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1343.3219</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52353.372</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0318</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.9338</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3558.7</v>
       </c>
       <c r="F7" s="1">
         <v>582.3143</v>
       </c>
       <c r="G7" s="1">
-        <v>4141.0143</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52869.115</v>
       </c>
       <c r="I7" s="1">
-        <v>57352.8431</v>
+        <v>1343.3219</v>
       </c>
       <c r="J7" s="1">
-        <v>13.85</v>
+        <v>54212.4369</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47352.8431</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.3062</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8696.165000000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>2647.1569</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64167.3075</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0291</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.9313</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4141.0143</v>
       </c>
       <c r="F8" s="1">
         <v>410.4853</v>
       </c>
       <c r="G8" s="1">
-        <v>4551.4996</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65629.69319999999</v>
       </c>
       <c r="I8" s="1">
-        <v>63892.4081</v>
+        <v>2647.1569</v>
       </c>
       <c r="J8" s="1">
-        <v>14.0377</v>
+        <v>68276.8501</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53892.4081</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.0143</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6539.565</v>
       </c>
-      <c r="O8" s="1">
-        <v>6107.5919</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78242.944</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.055</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.0207</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4551.4996</v>
       </c>
       <c r="F9" s="1">
         <v>341.8826</v>
       </c>
       <c r="G9" s="1">
-        <v>4893.3823</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>77067.81230000001</v>
       </c>
       <c r="I9" s="1">
-        <v>69711.48970000001</v>
+        <v>6107.5919</v>
       </c>
       <c r="J9" s="1">
-        <v>14.2461</v>
+        <v>83175.4042</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>59711.4897</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.1191</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5819.0816</v>
       </c>
-      <c r="O9" s="1">
-        <v>10288.5103</v>
-      </c>
-      <c r="P9" s="1">
-        <v>93145.2159</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0556</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.4608</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4893.3823</v>
       </c>
       <c r="F10" s="1">
         <v>500.0659</v>
       </c>
       <c r="G10" s="1">
-        <v>5393.4481</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84999.0284</v>
       </c>
       <c r="I10" s="1">
-        <v>78443.03999999999</v>
+        <v>10288.5103</v>
       </c>
       <c r="J10" s="1">
-        <v>14.5441</v>
+        <v>95287.5387</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>68443.03999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9869</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8731.550300000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>11556.96</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105242.2327</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0203</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.886</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5393.4481</v>
       </c>
       <c r="F11" s="1">
         <v>834.6154</v>
       </c>
       <c r="G11" s="1">
-        <v>6228.0635</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>90601.83839999999</v>
       </c>
       <c r="I11" s="1">
-        <v>92536.3558</v>
+        <v>11556.96</v>
       </c>
       <c r="J11" s="1">
-        <v>14.858</v>
+        <v>102158.7984</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82536.3558</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.3031</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-14093.3159</v>
       </c>
-      <c r="O11" s="1">
-        <v>7463.6442</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112085.7696</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0274</v>
+        <v>-0.0297</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.59</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6228.0635</v>
       </c>
       <c r="F12" s="1">
         <v>382.0095</v>
       </c>
       <c r="G12" s="1">
-        <v>6610.0731</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108983.6383</v>
       </c>
       <c r="I12" s="1">
-        <v>99255.9035</v>
+        <v>7463.6442</v>
       </c>
       <c r="J12" s="1">
-        <v>15.0159</v>
+        <v>116447.2825</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89255.9035</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.3312</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6719.5476</v>
       </c>
-      <c r="O12" s="1">
-        <v>10744.0965</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126412.4432</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0354</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.0121</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6610.0731</v>
       </c>
       <c r="F13" s="1">
         <v>1381.8251</v>
       </c>
       <c r="G13" s="1">
-        <v>7991.8982</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119352.6056</v>
+        <v>98716.15330000001</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>10744.0965</v>
       </c>
       <c r="J13" s="1">
-        <v>15.0152</v>
+        <v>109460.2498</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.6413</v>
+      </c>
+      <c r="M13" s="1">
         <v>3.57</v>
       </c>
-      <c r="L13" s="1">
-        <v>21238.1648</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>494.0682</v>
+        <v>20010.7682</v>
       </c>
       <c r="O13" s="1">
-        <v>21238.1648</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>140590.7704</v>
+        <v>-733.3284</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0306</v>
+        <v>-0.1343</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>15.3645</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7991.8982</v>
       </c>
       <c r="F14" s="1">
         <v>-7991.8982</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122154.5651</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>20010.7682</v>
       </c>
       <c r="J14" s="1">
-        <v>15.0152</v>
+        <v>142165.3333</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.7639</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122154.5651</v>
       </c>
-      <c r="O14" s="1">
-        <v>143392.7299</v>
-      </c>
-      <c r="P14" s="1">
-        <v>143392.7299</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0478</v>
+        <v>0.1901</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>711.5513</v>
       </c>
       <c r="G2" s="1">
-        <v>711.5513</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.1873</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>711.5513</v>
       </c>
       <c r="F3" s="1">
         <v>758.3053</v>
       </c>
       <c r="G3" s="1">
-        <v>1469.8567</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19282.9026</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.6068</v>
+        <v>9334.770699999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.0538</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19282.9026</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0333</v>
+        <v>-0.0665</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.0538</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1469.8567</v>
       </c>
       <c r="F4" s="1">
         <v>766.0605</v>
       </c>
       <c r="G4" s="1">
-        <v>2235.9171</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29035.8433</v>
+        <v>19087.7056</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4173</v>
+        <v>19087.7056</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.6068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29035.8433</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.008399999999999999</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.8433</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2235.9171</v>
       </c>
       <c r="F5" s="1">
         <v>722.3711</v>
       </c>
       <c r="G5" s="1">
-        <v>2958.2882</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40740.0664</v>
+        <v>30791.9326</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.5213</v>
+        <v>30791.9326</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.4173</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40740.0664</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0437</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.4086</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2958.2882</v>
       </c>
       <c r="F6" s="1">
         <v>636.1745</v>
       </c>
       <c r="G6" s="1">
-        <v>3594.4627</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42403.8077</v>
       </c>
       <c r="I6" s="1">
-        <v>49166.3838</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6784</v>
+        <v>42403.8077</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39166.3838</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.2395</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9166.3838</v>
       </c>
-      <c r="O6" s="1">
-        <v>833.6162</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52356.2855</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0319</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.9338</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3594.4627</v>
       </c>
       <c r="F7" s="1">
         <v>598.7421000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>4193.2049</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53400.4166</v>
       </c>
       <c r="I7" s="1">
-        <v>58107.879</v>
+        <v>833.6162</v>
       </c>
       <c r="J7" s="1">
-        <v>13.8576</v>
+        <v>54234.0328</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48107.879</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.3839</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8941.495199999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1892.121</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64187.6303</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0294</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.9313</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4193.2049</v>
       </c>
       <c r="F8" s="1">
         <v>427.3597</v>
       </c>
       <c r="G8" s="1">
-        <v>4620.5646</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>66456.8458</v>
       </c>
       <c r="I8" s="1">
-        <v>64916.2751</v>
+        <v>1892.121</v>
       </c>
       <c r="J8" s="1">
-        <v>14.0494</v>
+        <v>68348.96679999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54916.2751</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.0965</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6808.3961</v>
       </c>
-      <c r="O8" s="1">
-        <v>5083.7249</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78313.66680000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0556</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.0207</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4620.5646</v>
       </c>
       <c r="F9" s="1">
         <v>359.733</v>
       </c>
       <c r="G9" s="1">
-        <v>4980.2976</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>78237.2478</v>
       </c>
       <c r="I9" s="1">
-        <v>71039.1828</v>
+        <v>5083.7249</v>
       </c>
       <c r="J9" s="1">
-        <v>14.264</v>
+        <v>83320.9727</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61039.1828</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.2103</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6122.9077</v>
       </c>
-      <c r="O9" s="1">
-        <v>8960.8172</v>
-      </c>
-      <c r="P9" s="1">
-        <v>93289.2083</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0563</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.4608</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4980.2976</v>
       </c>
       <c r="F10" s="1">
         <v>522.9964</v>
       </c>
       <c r="G10" s="1">
-        <v>5503.294</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>86508.7654</v>
       </c>
       <c r="I10" s="1">
-        <v>80171.11780000001</v>
+        <v>8960.8172</v>
       </c>
       <c r="J10" s="1">
-        <v>14.5678</v>
+        <v>95469.58259999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70171.11780000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.0897</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9131.934999999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>9828.8822</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105422.1991</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0207</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.886</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5503.294</v>
       </c>
       <c r="F11" s="1">
         <v>867.9425</v>
       </c>
       <c r="G11" s="1">
-        <v>6371.2365</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>92447.08379999999</v>
       </c>
       <c r="I11" s="1">
-        <v>94827.1957</v>
+        <v>9828.8822</v>
       </c>
       <c r="J11" s="1">
-        <v>14.8836</v>
+        <v>102275.9659</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84827.1957</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.4139</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-14656.0779</v>
       </c>
-      <c r="O11" s="1">
-        <v>5172.8043</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112200.0209</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0279</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.59</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6371.2365</v>
       </c>
       <c r="F12" s="1">
         <v>408.2355</v>
       </c>
       <c r="G12" s="1">
-        <v>6779.472</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>111488.9936</v>
       </c>
       <c r="I12" s="1">
-        <v>102008.0581</v>
+        <v>5172.8043</v>
       </c>
       <c r="J12" s="1">
-        <v>15.0466</v>
+        <v>116661.7979</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92008.05809999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.4412</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7180.8624</v>
       </c>
-      <c r="O12" s="1">
-        <v>7991.9419</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126624.5668</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0362</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.0121</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6779.472</v>
       </c>
       <c r="F13" s="1">
         <v>1198.496</v>
       </c>
       <c r="G13" s="1">
-        <v>7977.968</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119144.57</v>
+        <v>101245.991</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>7991.9419</v>
       </c>
       <c r="J13" s="1">
-        <v>15.0414</v>
+        <v>109237.9329</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>16.2255</v>
+      </c>
+      <c r="M13" s="1">
         <v>3.57</v>
       </c>
-      <c r="L13" s="1">
-        <v>21782.4436</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>3790.5017</v>
+        <v>20470.7829</v>
       </c>
       <c r="O13" s="1">
-        <v>21782.4436</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>140927.0136</v>
+        <v>2478.8411</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0315</v>
+        <v>-0.1376</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>15.3645</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7977.968</v>
       </c>
       <c r="F14" s="1">
         <v>-7977.968</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121941.6456</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>20470.7829</v>
       </c>
       <c r="J14" s="1">
-        <v>15.0414</v>
+        <v>142412.4286</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.788</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121941.6456</v>
       </c>
-      <c r="O14" s="1">
-        <v>143724.0892</v>
-      </c>
-      <c r="P14" s="1">
-        <v>143724.0892</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0477</v>
+        <v>0.1944</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.3231</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.1196</v>
+        <v>13.8597</v>
       </c>
       <c r="D3" s="1">
-        <v>14.968</v>
+        <v>13.7207</v>
       </c>
       <c r="E3" s="1">
-        <v>14.991</v>
+        <v>13.7418</v>
       </c>
       <c r="F3" s="1">
-        <v>15.0152</v>
+        <v>13.7639</v>
       </c>
       <c r="G3" s="1">
-        <v>15.0414</v>
+        <v>13.788</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1127</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1972</v>
+        <v>0.2787</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1779</v>
+        <v>0.2585</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1811</v>
+        <v>0.2623</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1845</v>
+        <v>0.2661</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1878</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2101</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1221</v>
+        <v>0.2832</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1159</v>
+        <v>0.2546</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1168</v>
+        <v>0.2593</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1177</v>
+        <v>0.2642</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1187</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.4397</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4487</v>
+        <v>0.9122</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3593</v>
+        <v>0.9357</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3769</v>
+        <v>0.9329</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3944</v>
+        <v>0.93</v>
       </c>
       <c r="G6" s="4">
-        <v>1.411</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4117</v>
+        <v>0.2059</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4162</v>
+        <v>0.3952</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4164</v>
+        <v>0.3942</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4166</v>
+        <v>0.3932</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4168</v>
+        <v>0.3921</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>23360.3672</v>
+        <v>21533.7612</v>
       </c>
       <c r="D8" s="1">
-        <v>20197.385</v>
+        <v>19126.7077</v>
       </c>
       <c r="E8" s="1">
-        <v>20709.9699</v>
+        <v>19562.8472</v>
       </c>
       <c r="F8" s="1">
-        <v>21238.1648</v>
+        <v>20010.7682</v>
       </c>
       <c r="G8" s="1">
-        <v>21782.4436</v>
+        <v>20470.7829</v>
       </c>
     </row>
   </sheetData>
